--- a/CashFlow/OKE_cashflow.xlsx
+++ b/CashFlow/OKE_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1859000000.0</v>
+        <v>-238563000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1732000000.0</v>
+        <v>77116000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1339619000.0</v>
+        <v>-17032000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>781024000.0</v>
+        <v>-16933000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>324297000.0</v>
+        <v>112182000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-8259000.0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>616988000.0</v>
+        <v>3028000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>14943000.0</v>
+        <v>2840000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-130122000.0</v>
+        <v>2189687000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-216951000.0</v>
+        <v>1520890000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-273518000.0</v>
+        <v>819183000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>29373000.0</v>
